--- a/data/input/shechle.xlsx
+++ b/data/input/shechle.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>SKU/DATE</t>
   </si>
@@ -72,15 +72,6 @@
   </si>
   <si>
     <t>A1665NB1</t>
-  </si>
-  <si>
-    <t>A1665P11</t>
-  </si>
-  <si>
-    <t>A1665P21</t>
-  </si>
-  <si>
-    <t>A1665PB1</t>
   </si>
   <si>
     <t>A1665W11</t>
@@ -256,12 +247,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -582,7 +579,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,16 +603,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -624,85 +621,85 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -710,13 +707,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1244,1026 +1241,674 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="13.0769230769231" customWidth="1"/>
-    <col min="2" max="3" width="12.0769230769231" customWidth="1"/>
-    <col min="4" max="4" width="10.9230769230769" customWidth="1"/>
-    <col min="5" max="7" width="12.0769230769231" customWidth="1"/>
-    <col min="8" max="8" width="9.84615384615385" customWidth="1"/>
-    <col min="9" max="11" width="10.9230769230769" customWidth="1"/>
-    <col min="12" max="13" width="9.84615384615385"/>
-    <col min="14" max="15" width="10.9230769230769"/>
+    <col min="2" max="4" width="12.0769230769231" customWidth="1"/>
+    <col min="5" max="5" width="9.84615384615385" customWidth="1"/>
+    <col min="6" max="8" width="10.9230769230769" customWidth="1"/>
+    <col min="9" max="10" width="9.84615384615385"/>
+    <col min="11" max="12" width="10.9230769230769"/>
+    <col min="13" max="14" width="9.84615384615385"/>
+    <col min="15" max="17" width="10.9230769230769"/>
+    <col min="18" max="18" width="9.84615384615385"/>
+    <col min="19" max="21" width="10.9230769230769"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>45984</v>
-      </c>
-      <c r="C1" s="2">
-        <f t="shared" ref="C1:K1" si="0">B1+7</f>
-        <v>45991</v>
-      </c>
-      <c r="D1" s="2">
-        <f t="shared" si="0"/>
-        <v>45998</v>
-      </c>
-      <c r="E1" s="2">
-        <f t="shared" si="0"/>
         <v>46005</v>
       </c>
-      <c r="F1" s="2">
-        <f t="shared" si="0"/>
+      <c r="C1" s="1">
+        <f t="shared" ref="B1:L1" si="0">B1+7</f>
         <v>46012</v>
       </c>
-      <c r="G1" s="2">
+      <c r="D1" s="1">
         <f t="shared" si="0"/>
         <v>46019</v>
       </c>
-      <c r="H1" s="2">
+      <c r="E1" s="1">
         <f t="shared" si="0"/>
         <v>46026</v>
       </c>
-      <c r="I1" s="2">
+      <c r="F1" s="1">
         <f t="shared" si="0"/>
         <v>46033</v>
       </c>
-      <c r="J1" s="2">
+      <c r="G1" s="1">
         <f t="shared" si="0"/>
         <v>46040</v>
       </c>
-      <c r="K1" s="2">
+      <c r="H1" s="1">
         <f t="shared" si="0"/>
         <v>46047</v>
       </c>
-      <c r="L1" s="2">
-        <f>K1+7</f>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
         <v>46054</v>
       </c>
-      <c r="M1" s="2">
-        <f>L1+7</f>
+      <c r="J1" s="1">
+        <f t="shared" si="0"/>
         <v>46061</v>
       </c>
-      <c r="N1" s="2">
-        <f>M1+7</f>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
         <v>46068</v>
       </c>
-      <c r="O1" s="2">
-        <f>N1+7</f>
+      <c r="L1" s="1">
+        <f t="shared" si="0"/>
         <v>46075</v>
       </c>
+      <c r="M1" s="1">
+        <f t="shared" ref="M1:T1" si="1">L1+7</f>
+        <v>46082</v>
+      </c>
+      <c r="N1" s="1">
+        <f t="shared" si="1"/>
+        <v>46089</v>
+      </c>
+      <c r="O1" s="1">
+        <f t="shared" si="1"/>
+        <v>46096</v>
+      </c>
+      <c r="P1" s="1">
+        <f t="shared" si="1"/>
+        <v>46103</v>
+      </c>
+      <c r="Q1" s="1">
+        <f t="shared" si="1"/>
+        <v>46110</v>
+      </c>
+      <c r="R1" s="1">
+        <f t="shared" si="1"/>
+        <v>46117</v>
+      </c>
+      <c r="S1" s="1">
+        <f t="shared" si="1"/>
+        <v>46124</v>
+      </c>
+      <c r="T1" s="1">
+        <f t="shared" si="1"/>
+        <v>46131</v>
+      </c>
+      <c r="U1" s="1">
+        <f>T1+7</f>
+        <v>46138</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>100</v>
-      </c>
-      <c r="C2" s="3">
-        <v>600</v>
-      </c>
-      <c r="D2" s="3">
-        <v>600</v>
-      </c>
-      <c r="E2" s="3">
-        <v>400</v>
-      </c>
-      <c r="F2" s="3">
-        <v>500</v>
-      </c>
+      <c r="B2" s="2">
+        <v>12000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12000</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="3">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="H2" s="3">
-        <v>700</v>
-      </c>
-      <c r="I2" s="3">
-        <v>800</v>
-      </c>
-      <c r="J2">
+        <v>5600</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="3">
-        <v>100</v>
-      </c>
-      <c r="M2" s="3">
-        <v>600</v>
-      </c>
-      <c r="N2">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="R2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="S2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>6000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>600</v>
-      </c>
-      <c r="D3" s="3">
-        <v>600</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>900</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>600</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5840</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6160</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>300</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>600</v>
-      </c>
-      <c r="E4" s="3">
-        <v>600</v>
-      </c>
-      <c r="F4" s="3">
-        <v>700</v>
-      </c>
-      <c r="G4" s="3">
-        <v>800</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>9000</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3">
+        <v>4608</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>920</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>9360</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2520</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
+        <v>1120</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2480</v>
+      </c>
+      <c r="H12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
+        <v>1240</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>280</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>8760</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
+        <v>1360</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <v>4480</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <v>4080</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4120</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2040</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3">
+        <v>5520</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
         <v>1000</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>300</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3720</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>600</v>
-      </c>
-      <c r="D5" s="3">
-        <v>600</v>
-      </c>
-      <c r="E5" s="3">
-        <v>700</v>
-      </c>
-      <c r="F5" s="3">
-        <v>800</v>
-      </c>
-      <c r="G5" s="3">
-        <v>900</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>600</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>900</v>
-      </c>
-      <c r="C6" s="3">
-        <v>600</v>
-      </c>
-      <c r="D6" s="3">
-        <v>600</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>900</v>
-      </c>
-      <c r="M6" s="3">
-        <v>600</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C7" s="3">
-        <v>600</v>
-      </c>
-      <c r="D7" s="3">
-        <v>600</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2300</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H7" s="3">
-        <v>600</v>
-      </c>
-      <c r="I7" s="3">
-        <v>400</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M7" s="3">
-        <v>600</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="3">
-        <v>600</v>
-      </c>
-      <c r="D8" s="3">
-        <v>600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>400</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>600</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="C9" s="3">
-        <v>600</v>
-      </c>
-      <c r="D9" s="3">
-        <v>600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H9" s="3">
-        <v>600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>400</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>600</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>100</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>600</v>
-      </c>
-      <c r="E10" s="3">
-        <v>400</v>
-      </c>
-      <c r="F10" s="3">
-        <v>500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>400</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>100</v>
-      </c>
-      <c r="C11" s="3">
-        <v>600</v>
-      </c>
-      <c r="D11" s="3">
-        <v>600</v>
-      </c>
-      <c r="E11" s="3">
-        <v>400</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>600</v>
-      </c>
-      <c r="H11" s="3">
-        <v>600</v>
-      </c>
-      <c r="I11" s="3">
-        <v>400</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>600</v>
-      </c>
-      <c r="M11" s="3">
-        <v>400</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>100</v>
-      </c>
-      <c r="C12" s="3">
-        <v>600</v>
-      </c>
-      <c r="D12" s="3">
-        <v>600</v>
-      </c>
-      <c r="E12" s="3">
-        <v>400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>600</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>400</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>400</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>100</v>
-      </c>
-      <c r="C13" s="3">
-        <v>600</v>
-      </c>
-      <c r="D13" s="3">
-        <v>600</v>
-      </c>
-      <c r="E13" s="3">
-        <v>400</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>600</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>800</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>600</v>
-      </c>
-      <c r="M13" s="3">
-        <v>400</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>100</v>
-      </c>
-      <c r="C14" s="3">
-        <v>600</v>
-      </c>
-      <c r="D14" s="3">
-        <v>600</v>
-      </c>
-      <c r="E14" s="3">
-        <v>400</v>
-      </c>
-      <c r="F14" s="3">
-        <v>500</v>
-      </c>
-      <c r="G14" s="3">
-        <v>600</v>
-      </c>
-      <c r="H14" s="3">
-        <v>700</v>
-      </c>
-      <c r="I14" s="3">
-        <v>800</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>600</v>
-      </c>
-      <c r="M14" s="3">
-        <v>400</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>100</v>
-      </c>
-      <c r="C15" s="3">
-        <v>600</v>
-      </c>
-      <c r="D15" s="3">
-        <v>600</v>
-      </c>
-      <c r="E15" s="3">
-        <v>400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>800</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>400</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>100</v>
-      </c>
-      <c r="C16" s="3">
-        <v>600</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>400</v>
-      </c>
-      <c r="F16" s="3">
-        <v>500</v>
-      </c>
-      <c r="G16" s="3">
-        <v>600</v>
-      </c>
-      <c r="H16" s="3">
-        <v>700</v>
-      </c>
-      <c r="I16" s="3">
-        <v>800</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>400</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>100</v>
-      </c>
-      <c r="C17" s="3">
-        <v>600</v>
-      </c>
-      <c r="D17" s="3">
-        <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>800</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
-        <v>100</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>600</v>
-      </c>
-      <c r="E18" s="3">
-        <v>400</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G18" s="3">
-        <v>600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>800</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>400</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1700</v>
-      </c>
-      <c r="C19" s="3">
-        <v>600</v>
-      </c>
-      <c r="D19" s="3">
-        <v>600</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I19" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>600</v>
-      </c>
-      <c r="M19" s="3">
-        <v>400</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="C20" s="3">
-        <v>600</v>
-      </c>
-      <c r="D20" s="3">
-        <v>600</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>400</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>100</v>
-      </c>
-      <c r="C21" s="3">
-        <v>600</v>
-      </c>
-      <c r="D21" s="3">
-        <v>600</v>
-      </c>
-      <c r="E21" s="3">
-        <v>400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>800</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>400</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="13:13">
-      <c r="M22" s="3"/>
+        <v>3640</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
